--- a/Population/PopPyramid2021.xlsx
+++ b/Population/PopPyramid2021.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="5">
   <si>
     <t>2021 Total Population</t>
   </si>
@@ -23,6 +23,12 @@
   </si>
   <si>
     <t>2021 Female</t>
+  </si>
+  <si>
+    <t>stfips</t>
+  </si>
+  <si>
+    <t>05</t>
   </si>
 </sst>
 </file>
@@ -380,13 +386,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -396,104 +402,134 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2">
-        <v>1390341</v>
+        <v>742592</v>
       </c>
       <c r="B2">
-        <v>710968</v>
+        <v>380871</v>
       </c>
       <c r="C2">
-        <v>679373</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>361721</v>
+      </c>
+      <c r="D2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3">
-        <v>495270</v>
+        <v>277047</v>
       </c>
       <c r="B3">
-        <v>250161</v>
+        <v>140733</v>
       </c>
       <c r="C3">
-        <v>245109</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+        <v>136314</v>
+      </c>
+      <c r="D3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4">
-        <v>756841</v>
+        <v>393214</v>
       </c>
       <c r="B4">
-        <v>386842</v>
+        <v>196609</v>
       </c>
       <c r="C4">
-        <v>369999</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>196605</v>
+      </c>
+      <c r="D4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5">
-        <v>752814</v>
+        <v>376107</v>
       </c>
       <c r="B5">
-        <v>385153</v>
+        <v>188040</v>
       </c>
       <c r="C5">
-        <v>367661</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
+        <v>188067</v>
+      </c>
+      <c r="D5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6">
-        <v>669867</v>
+        <v>359672</v>
       </c>
       <c r="B6">
-        <v>341084</v>
+        <v>178734</v>
       </c>
       <c r="C6">
-        <v>328783</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+        <v>180938</v>
+      </c>
+      <c r="D6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7">
-        <v>755450</v>
+        <v>385089</v>
       </c>
       <c r="B7">
-        <v>377957</v>
+        <v>187380</v>
       </c>
       <c r="C7">
-        <v>377493</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+        <v>197709</v>
+      </c>
+      <c r="D7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8">
-        <v>542524</v>
+        <v>300153</v>
       </c>
       <c r="B8">
-        <v>263170</v>
+        <v>140228</v>
       </c>
       <c r="C8">
-        <v>279354</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+        <v>159925</v>
+      </c>
+      <c r="D8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9">
-        <v>344283</v>
+        <v>192017</v>
       </c>
       <c r="B9">
-        <v>145078</v>
+        <v>80583</v>
       </c>
       <c r="C9">
-        <v>199205</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+        <v>111434</v>
+      </c>
+      <c r="D9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10">
-        <v>5707390</v>
+        <v>3025891</v>
       </c>
       <c r="B10">
-        <v>2860413</v>
+        <v>1493178</v>
       </c>
       <c r="C10">
-        <v>2846977</v>
+        <v>1532713</v>
+      </c>
+      <c r="D10" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
